--- a/PlazaTransicion.xlsx
+++ b/PlazaTransicion.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GASPAR\OneDrive\Documentos\Facultad\Programación Concurrente\TP Final Prog Concurrente\Repositorio\Programacion-Concurrente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7560"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Transiciones</t>
   </si>
@@ -166,13 +171,19 @@
   </si>
   <si>
     <t>Como el robot R2 y las máquinas M3 y M4 pueden requerir de su uso en forma simultánea se debe de garantizar la exclusion mutua</t>
+  </si>
+  <si>
+    <t>&lt;A,N&gt;</t>
+  </si>
+  <si>
+    <t>&lt;D,I&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -276,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +362,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,20 +538,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -538,174 +559,234 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -713,7 +794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -721,7 +802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -729,7 +810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -737,7 +818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -745,12 +826,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>49</v>
       </c>
@@ -762,24 +843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
